--- a/ky/downloads/data-excel/5.4.1.xlsx
+++ b/ky/downloads/data-excel/5.4.1.xlsx
@@ -598,7 +598,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -615,7 +615,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -632,7 +632,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -666,7 +666,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -683,7 +683,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -700,7 +700,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -734,7 +734,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -751,7 +751,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -802,7 +802,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -819,7 +819,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -836,7 +836,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -853,7 +853,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
